--- a/nlp/sp_goods.xlsx
+++ b/nlp/sp_goods.xlsx
@@ -61,42 +61,42 @@
     <t>железо</t>
   </si>
   <si>
+    <t>Крымскую соль</t>
+  </si>
+  <si>
+    <t>колеса</t>
+  </si>
+  <si>
     <t>полотно</t>
   </si>
   <si>
-    <t>Крымскую соль</t>
-  </si>
-  <si>
-    <t>колеса</t>
+    <t>сено</t>
+  </si>
+  <si>
+    <t>парча</t>
   </si>
   <si>
     <t>говядина</t>
   </si>
   <si>
-    <t>парча</t>
-  </si>
-  <si>
-    <t>сено</t>
+    <t>табак</t>
   </si>
   <si>
     <t>позумент</t>
   </si>
   <si>
-    <t>табак</t>
+    <t>выбойка</t>
+  </si>
+  <si>
+    <t>сахар</t>
   </si>
   <si>
     <t>шелк</t>
   </si>
   <si>
-    <t>выбойка</t>
-  </si>
-  <si>
     <t>чулок</t>
   </si>
   <si>
-    <t>сахар</t>
-  </si>
-  <si>
     <t>лес</t>
   </si>
   <si>
@@ -106,82 +106,82 @@
     <t>китайка</t>
   </si>
   <si>
+    <t>сапог</t>
+  </si>
+  <si>
+    <t>ладан</t>
+  </si>
+  <si>
     <t>сани</t>
   </si>
   <si>
-    <t>ладан</t>
-  </si>
-  <si>
     <t>коса</t>
   </si>
   <si>
-    <t>сапог</t>
+    <t>ром</t>
+  </si>
+  <si>
+    <t>горшок</t>
+  </si>
+  <si>
+    <t>гвоздь</t>
+  </si>
+  <si>
+    <t>овца</t>
+  </si>
+  <si>
+    <t>веревка</t>
+  </si>
+  <si>
+    <t>обод</t>
   </si>
   <si>
     <t>замок</t>
   </si>
   <si>
-    <t>веревка</t>
+    <t>рогожа</t>
+  </si>
+  <si>
+    <t>конь</t>
   </si>
   <si>
     <t>платок</t>
   </si>
   <si>
-    <t>гвоздь</t>
-  </si>
-  <si>
-    <t>овца</t>
-  </si>
-  <si>
-    <t>обод</t>
-  </si>
-  <si>
-    <t>ром</t>
-  </si>
-  <si>
-    <t>рогожа</t>
-  </si>
-  <si>
-    <t>конь</t>
-  </si>
-  <si>
-    <t>горшок</t>
+    <t>гумми</t>
+  </si>
+  <si>
+    <t>дуга</t>
+  </si>
+  <si>
+    <t>брусья</t>
+  </si>
+  <si>
+    <t>сосуд</t>
+  </si>
+  <si>
+    <t>бечева</t>
+  </si>
+  <si>
+    <t>сковорода</t>
+  </si>
+  <si>
+    <t>покроми</t>
+  </si>
+  <si>
+    <t>хомут</t>
+  </si>
+  <si>
+    <t>нитка</t>
   </si>
   <si>
     <t>роза</t>
   </si>
   <si>
-    <t>дуга</t>
-  </si>
-  <si>
-    <t>хомут</t>
-  </si>
-  <si>
-    <t>покроми</t>
+    <t>скотский кожа</t>
   </si>
   <si>
     <t>котел</t>
-  </si>
-  <si>
-    <t>бечева</t>
-  </si>
-  <si>
-    <t>брусья</t>
-  </si>
-  <si>
-    <t>сосуд</t>
-  </si>
-  <si>
-    <t>нитка</t>
-  </si>
-  <si>
-    <t>гумми</t>
-  </si>
-  <si>
-    <t>сковорода</t>
-  </si>
-  <si>
-    <t>скотский кожа</t>
   </si>
 </sst>
 </file>

--- a/nlp/sp_goods.xlsx
+++ b/nlp/sp_goods.xlsx
@@ -61,42 +61,42 @@
     <t>железо</t>
   </si>
   <si>
+    <t>колеса</t>
+  </si>
+  <si>
+    <t>полотно</t>
+  </si>
+  <si>
     <t>Крымскую соль</t>
   </si>
   <si>
-    <t>колеса</t>
-  </si>
-  <si>
-    <t>полотно</t>
+    <t>говядина</t>
+  </si>
+  <si>
+    <t>парча</t>
   </si>
   <si>
     <t>сено</t>
   </si>
   <si>
-    <t>парча</t>
-  </si>
-  <si>
-    <t>говядина</t>
-  </si>
-  <si>
     <t>табак</t>
   </si>
   <si>
     <t>позумент</t>
   </si>
   <si>
+    <t>сахар</t>
+  </si>
+  <si>
     <t>выбойка</t>
   </si>
   <si>
-    <t>сахар</t>
+    <t>чулок</t>
   </si>
   <si>
     <t>шелк</t>
   </si>
   <si>
-    <t>чулок</t>
-  </si>
-  <si>
     <t>лес</t>
   </si>
   <si>
@@ -118,70 +118,70 @@
     <t>коса</t>
   </si>
   <si>
+    <t>горшок</t>
+  </si>
+  <si>
+    <t>конь</t>
+  </si>
+  <si>
+    <t>обод</t>
+  </si>
+  <si>
+    <t>веревка</t>
+  </si>
+  <si>
     <t>ром</t>
   </si>
   <si>
-    <t>горшок</t>
-  </si>
-  <si>
     <t>гвоздь</t>
   </si>
   <si>
+    <t>рогожа</t>
+  </si>
+  <si>
     <t>овца</t>
   </si>
   <si>
-    <t>веревка</t>
-  </si>
-  <si>
-    <t>обод</t>
-  </si>
-  <si>
     <t>замок</t>
   </si>
   <si>
-    <t>рогожа</t>
-  </si>
-  <si>
-    <t>конь</t>
-  </si>
-  <si>
     <t>платок</t>
   </si>
   <si>
+    <t>дуга</t>
+  </si>
+  <si>
+    <t>покроми</t>
+  </si>
+  <si>
+    <t>роза</t>
+  </si>
+  <si>
+    <t>хомут</t>
+  </si>
+  <si>
     <t>гумми</t>
   </si>
   <si>
-    <t>дуга</t>
+    <t>сковорода</t>
+  </si>
+  <si>
+    <t>сосуд</t>
+  </si>
+  <si>
+    <t>нитка</t>
   </si>
   <si>
     <t>брусья</t>
   </si>
   <si>
-    <t>сосуд</t>
+    <t>котел</t>
   </si>
   <si>
     <t>бечева</t>
   </si>
   <si>
-    <t>сковорода</t>
-  </si>
-  <si>
-    <t>покроми</t>
-  </si>
-  <si>
-    <t>хомут</t>
-  </si>
-  <si>
-    <t>нитка</t>
-  </si>
-  <si>
-    <t>роза</t>
-  </si>
-  <si>
     <t>скотский кожа</t>
-  </si>
-  <si>
-    <t>котел</t>
   </si>
 </sst>
 </file>

--- a/nlp/sp_goods.xlsx
+++ b/nlp/sp_goods.xlsx
@@ -61,13 +61,16 @@
     <t>железо</t>
   </si>
   <si>
+    <t>Крымскую соль</t>
+  </si>
+  <si>
     <t>колеса</t>
   </si>
   <si>
     <t>полотно</t>
   </si>
   <si>
-    <t>Крымскую соль</t>
+    <t>сено</t>
   </si>
   <si>
     <t>говядина</t>
@@ -76,13 +79,13 @@
     <t>парча</t>
   </si>
   <si>
-    <t>сено</t>
+    <t>позумент</t>
   </si>
   <si>
     <t>табак</t>
   </si>
   <si>
-    <t>позумент</t>
+    <t>шелк</t>
   </si>
   <si>
     <t>сахар</t>
@@ -94,94 +97,91 @@
     <t>чулок</t>
   </si>
   <si>
-    <t>шелк</t>
-  </si>
-  <si>
     <t>лес</t>
   </si>
   <si>
     <t>лыко</t>
   </si>
   <si>
+    <t>ладан</t>
+  </si>
+  <si>
+    <t>сани</t>
+  </si>
+  <si>
     <t>китайка</t>
   </si>
   <si>
     <t>сапог</t>
   </si>
   <si>
-    <t>ладан</t>
-  </si>
-  <si>
-    <t>сани</t>
-  </si>
-  <si>
     <t>коса</t>
   </si>
   <si>
     <t>горшок</t>
   </si>
   <si>
+    <t>платок</t>
+  </si>
+  <si>
+    <t>ром</t>
+  </si>
+  <si>
+    <t>овца</t>
+  </si>
+  <si>
     <t>конь</t>
   </si>
   <si>
+    <t>рогожа</t>
+  </si>
+  <si>
+    <t>гвоздь</t>
+  </si>
+  <si>
+    <t>замок</t>
+  </si>
+  <si>
     <t>обод</t>
   </si>
   <si>
     <t>веревка</t>
   </si>
   <si>
-    <t>ром</t>
-  </si>
-  <si>
-    <t>гвоздь</t>
-  </si>
-  <si>
-    <t>рогожа</t>
-  </si>
-  <si>
-    <t>овца</t>
-  </si>
-  <si>
-    <t>замок</t>
-  </si>
-  <si>
-    <t>платок</t>
+    <t>сосуд</t>
   </si>
   <si>
     <t>дуга</t>
   </si>
   <si>
+    <t>брусья</t>
+  </si>
+  <si>
+    <t>скотский кожа</t>
+  </si>
+  <si>
+    <t>хомут</t>
+  </si>
+  <si>
+    <t>роза</t>
+  </si>
+  <si>
+    <t>гумми</t>
+  </si>
+  <si>
     <t>покроми</t>
   </si>
   <si>
-    <t>роза</t>
-  </si>
-  <si>
-    <t>хомут</t>
-  </si>
-  <si>
-    <t>гумми</t>
+    <t>котел</t>
+  </si>
+  <si>
+    <t>нитка</t>
   </si>
   <si>
     <t>сковорода</t>
   </si>
   <si>
-    <t>сосуд</t>
-  </si>
-  <si>
-    <t>нитка</t>
-  </si>
-  <si>
-    <t>брусья</t>
-  </si>
-  <si>
-    <t>котел</t>
-  </si>
-  <si>
     <t>бечева</t>
-  </si>
-  <si>
-    <t>скотский кожа</t>
   </si>
 </sst>
 </file>

--- a/nlp/sp_goods.xlsx
+++ b/nlp/sp_goods.xlsx
@@ -61,21 +61,21 @@
     <t>железо</t>
   </si>
   <si>
+    <t>полотно</t>
+  </si>
+  <si>
+    <t>колеса</t>
+  </si>
+  <si>
     <t>Крымскую соль</t>
   </si>
   <si>
-    <t>колеса</t>
-  </si>
-  <si>
-    <t>полотно</t>
+    <t>говядина</t>
   </si>
   <si>
     <t>сено</t>
   </si>
   <si>
-    <t>говядина</t>
-  </si>
-  <si>
     <t>парча</t>
   </si>
   <si>
@@ -85,103 +85,103 @@
     <t>табак</t>
   </si>
   <si>
+    <t>выбойка</t>
+  </si>
+  <si>
+    <t>чулок</t>
+  </si>
+  <si>
+    <t>сахар</t>
+  </si>
+  <si>
     <t>шелк</t>
   </si>
   <si>
-    <t>сахар</t>
-  </si>
-  <si>
-    <t>выбойка</t>
-  </si>
-  <si>
-    <t>чулок</t>
+    <t>лыко</t>
   </si>
   <si>
     <t>лес</t>
   </si>
   <si>
-    <t>лыко</t>
+    <t>коса</t>
   </si>
   <si>
     <t>ладан</t>
   </si>
   <si>
+    <t>китайка</t>
+  </si>
+  <si>
     <t>сани</t>
   </si>
   <si>
-    <t>китайка</t>
-  </si>
-  <si>
     <t>сапог</t>
   </si>
   <si>
-    <t>коса</t>
+    <t>замок</t>
+  </si>
+  <si>
+    <t>обод</t>
+  </si>
+  <si>
+    <t>веревка</t>
+  </si>
+  <si>
+    <t>ром</t>
+  </si>
+  <si>
+    <t>платок</t>
+  </si>
+  <si>
+    <t>гвоздь</t>
+  </si>
+  <si>
+    <t>рогожа</t>
   </si>
   <si>
     <t>горшок</t>
   </si>
   <si>
-    <t>платок</t>
-  </si>
-  <si>
-    <t>ром</t>
+    <t>конь</t>
   </si>
   <si>
     <t>овца</t>
   </si>
   <si>
-    <t>конь</t>
-  </si>
-  <si>
-    <t>рогожа</t>
-  </si>
-  <si>
-    <t>гвоздь</t>
-  </si>
-  <si>
-    <t>замок</t>
-  </si>
-  <si>
-    <t>обод</t>
-  </si>
-  <si>
-    <t>веревка</t>
+    <t>покроми</t>
+  </si>
+  <si>
+    <t>бечева</t>
+  </si>
+  <si>
+    <t>роза</t>
+  </si>
+  <si>
+    <t>котел</t>
   </si>
   <si>
     <t>сосуд</t>
   </si>
   <si>
+    <t>брусья</t>
+  </si>
+  <si>
+    <t>хомут</t>
+  </si>
+  <si>
+    <t>нитка</t>
+  </si>
+  <si>
     <t>дуга</t>
   </si>
   <si>
-    <t>брусья</t>
+    <t>гумми</t>
   </si>
   <si>
     <t>скотский кожа</t>
   </si>
   <si>
-    <t>хомут</t>
-  </si>
-  <si>
-    <t>роза</t>
-  </si>
-  <si>
-    <t>гумми</t>
-  </si>
-  <si>
-    <t>покроми</t>
-  </si>
-  <si>
-    <t>котел</t>
-  </si>
-  <si>
-    <t>нитка</t>
-  </si>
-  <si>
     <t>сковорода</t>
-  </si>
-  <si>
-    <t>бечева</t>
   </si>
 </sst>
 </file>

--- a/nlp/sp_goods.xlsx
+++ b/nlp/sp_goods.xlsx
@@ -64,21 +64,21 @@
     <t>полотно</t>
   </si>
   <si>
+    <t>Крымскую соль</t>
+  </si>
+  <si>
     <t>колеса</t>
   </si>
   <si>
-    <t>Крымскую соль</t>
+    <t>сено</t>
+  </si>
+  <si>
+    <t>парча</t>
   </si>
   <si>
     <t>говядина</t>
   </si>
   <si>
-    <t>сено</t>
-  </si>
-  <si>
-    <t>парча</t>
-  </si>
-  <si>
     <t>позумент</t>
   </si>
   <si>
@@ -91,97 +91,97 @@
     <t>чулок</t>
   </si>
   <si>
+    <t>шелк</t>
+  </si>
+  <si>
     <t>сахар</t>
   </si>
   <si>
-    <t>шелк</t>
+    <t>лес</t>
   </si>
   <si>
     <t>лыко</t>
   </si>
   <si>
-    <t>лес</t>
+    <t>ладан</t>
   </si>
   <si>
     <t>коса</t>
   </si>
   <si>
-    <t>ладан</t>
-  </si>
-  <si>
     <t>китайка</t>
   </si>
   <si>
+    <t>сапог</t>
+  </si>
+  <si>
     <t>сани</t>
   </si>
   <si>
-    <t>сапог</t>
+    <t>ром</t>
+  </si>
+  <si>
+    <t>обод</t>
+  </si>
+  <si>
+    <t>овца</t>
   </si>
   <si>
     <t>замок</t>
   </si>
   <si>
-    <t>обод</t>
-  </si>
-  <si>
     <t>веревка</t>
   </si>
   <si>
-    <t>ром</t>
+    <t>горшок</t>
   </si>
   <si>
     <t>платок</t>
   </si>
   <si>
+    <t>конь</t>
+  </si>
+  <si>
     <t>гвоздь</t>
   </si>
   <si>
     <t>рогожа</t>
   </si>
   <si>
-    <t>горшок</t>
-  </si>
-  <si>
-    <t>конь</t>
-  </si>
-  <si>
-    <t>овца</t>
+    <t>брусья</t>
+  </si>
+  <si>
+    <t>бечева</t>
+  </si>
+  <si>
+    <t>роза</t>
+  </si>
+  <si>
+    <t>нитка</t>
+  </si>
+  <si>
+    <t>гумми</t>
+  </si>
+  <si>
+    <t>дуга</t>
+  </si>
+  <si>
+    <t>хомут</t>
+  </si>
+  <si>
+    <t>скотский кожа</t>
+  </si>
+  <si>
+    <t>котел</t>
   </si>
   <si>
     <t>покроми</t>
   </si>
   <si>
-    <t>бечева</t>
-  </si>
-  <si>
-    <t>роза</t>
-  </si>
-  <si>
-    <t>котел</t>
+    <t>сковорода</t>
   </si>
   <si>
     <t>сосуд</t>
-  </si>
-  <si>
-    <t>брусья</t>
-  </si>
-  <si>
-    <t>хомут</t>
-  </si>
-  <si>
-    <t>нитка</t>
-  </si>
-  <si>
-    <t>дуга</t>
-  </si>
-  <si>
-    <t>гумми</t>
-  </si>
-  <si>
-    <t>скотский кожа</t>
-  </si>
-  <si>
-    <t>сковорода</t>
   </si>
 </sst>
 </file>

--- a/nlp/sp_goods.xlsx
+++ b/nlp/sp_goods.xlsx
@@ -64,39 +64,39 @@
     <t>полотно</t>
   </si>
   <si>
+    <t>колеса</t>
+  </si>
+  <si>
     <t>Крымскую соль</t>
   </si>
   <si>
-    <t>колеса</t>
+    <t>парча</t>
+  </si>
+  <si>
+    <t>говядина</t>
   </si>
   <si>
     <t>сено</t>
   </si>
   <si>
-    <t>парча</t>
-  </si>
-  <si>
-    <t>говядина</t>
-  </si>
-  <si>
     <t>позумент</t>
   </si>
   <si>
     <t>табак</t>
   </si>
   <si>
+    <t>чулок</t>
+  </si>
+  <si>
     <t>выбойка</t>
   </si>
   <si>
-    <t>чулок</t>
+    <t>сахар</t>
   </si>
   <si>
     <t>шелк</t>
   </si>
   <si>
-    <t>сахар</t>
-  </si>
-  <si>
     <t>лес</t>
   </si>
   <si>
@@ -106,82 +106,82 @@
     <t>ладан</t>
   </si>
   <si>
+    <t>сани</t>
+  </si>
+  <si>
+    <t>китайка</t>
+  </si>
+  <si>
+    <t>сапог</t>
+  </si>
+  <si>
     <t>коса</t>
   </si>
   <si>
-    <t>китайка</t>
-  </si>
-  <si>
-    <t>сапог</t>
-  </si>
-  <si>
-    <t>сани</t>
+    <t>платок</t>
+  </si>
+  <si>
+    <t>рогожа</t>
+  </si>
+  <si>
+    <t>замок</t>
+  </si>
+  <si>
+    <t>обод</t>
+  </si>
+  <si>
+    <t>овца</t>
+  </si>
+  <si>
+    <t>горшок</t>
+  </si>
+  <si>
+    <t>конь</t>
+  </si>
+  <si>
+    <t>веревка</t>
+  </si>
+  <si>
+    <t>гвоздь</t>
   </si>
   <si>
     <t>ром</t>
   </si>
   <si>
-    <t>обод</t>
-  </si>
-  <si>
-    <t>овца</t>
-  </si>
-  <si>
-    <t>замок</t>
-  </si>
-  <si>
-    <t>веревка</t>
-  </si>
-  <si>
-    <t>горшок</t>
-  </si>
-  <si>
-    <t>платок</t>
-  </si>
-  <si>
-    <t>конь</t>
-  </si>
-  <si>
-    <t>гвоздь</t>
-  </si>
-  <si>
-    <t>рогожа</t>
+    <t>нитка</t>
+  </si>
+  <si>
+    <t>скотский кожа</t>
+  </si>
+  <si>
+    <t>гумми</t>
   </si>
   <si>
     <t>брусья</t>
   </si>
   <si>
+    <t>котел</t>
+  </si>
+  <si>
+    <t>покроми</t>
+  </si>
+  <si>
+    <t>сковорода</t>
+  </si>
+  <si>
+    <t>дуга</t>
+  </si>
+  <si>
+    <t>хомут</t>
+  </si>
+  <si>
     <t>бечева</t>
   </si>
   <si>
+    <t>сосуд</t>
+  </si>
+  <si>
     <t>роза</t>
-  </si>
-  <si>
-    <t>нитка</t>
-  </si>
-  <si>
-    <t>гумми</t>
-  </si>
-  <si>
-    <t>дуга</t>
-  </si>
-  <si>
-    <t>хомут</t>
-  </si>
-  <si>
-    <t>скотский кожа</t>
-  </si>
-  <si>
-    <t>котел</t>
-  </si>
-  <si>
-    <t>покроми</t>
-  </si>
-  <si>
-    <t>сковорода</t>
-  </si>
-  <si>
-    <t>сосуд</t>
   </si>
 </sst>
 </file>

--- a/nlp/sp_goods.xlsx
+++ b/nlp/sp_goods.xlsx
@@ -61,28 +61,31 @@
     <t>железо</t>
   </si>
   <si>
+    <t>Крымскую соль</t>
+  </si>
+  <si>
     <t>полотно</t>
   </si>
   <si>
     <t>колеса</t>
   </si>
   <si>
-    <t>Крымскую соль</t>
+    <t>сено</t>
+  </si>
+  <si>
+    <t>говядина</t>
   </si>
   <si>
     <t>парча</t>
   </si>
   <si>
-    <t>говядина</t>
-  </si>
-  <si>
-    <t>сено</t>
+    <t>табак</t>
   </si>
   <si>
     <t>позумент</t>
   </si>
   <si>
-    <t>табак</t>
+    <t>шелк</t>
   </si>
   <si>
     <t>чулок</t>
@@ -94,28 +97,37 @@
     <t>сахар</t>
   </si>
   <si>
-    <t>шелк</t>
+    <t>лыко</t>
   </si>
   <si>
     <t>лес</t>
   </si>
   <si>
-    <t>лыко</t>
+    <t>коса</t>
   </si>
   <si>
     <t>ладан</t>
   </si>
   <si>
+    <t>сапог</t>
+  </si>
+  <si>
+    <t>китайка</t>
+  </si>
+  <si>
     <t>сани</t>
   </si>
   <si>
-    <t>китайка</t>
-  </si>
-  <si>
-    <t>сапог</t>
-  </si>
-  <si>
-    <t>коса</t>
+    <t>гвоздь</t>
+  </si>
+  <si>
+    <t>конь</t>
+  </si>
+  <si>
+    <t>горшок</t>
+  </si>
+  <si>
+    <t>веревка</t>
   </si>
   <si>
     <t>платок</t>
@@ -127,61 +139,49 @@
     <t>замок</t>
   </si>
   <si>
+    <t>овца</t>
+  </si>
+  <si>
     <t>обод</t>
   </si>
   <si>
-    <t>овца</t>
-  </si>
-  <si>
-    <t>горшок</t>
-  </si>
-  <si>
-    <t>конь</t>
-  </si>
-  <si>
-    <t>веревка</t>
-  </si>
-  <si>
-    <t>гвоздь</t>
-  </si>
-  <si>
     <t>ром</t>
   </si>
   <si>
+    <t>дуга</t>
+  </si>
+  <si>
+    <t>бечева</t>
+  </si>
+  <si>
+    <t>котел</t>
+  </si>
+  <si>
+    <t>гумми</t>
+  </si>
+  <si>
+    <t>сковорода</t>
+  </si>
+  <si>
+    <t>брусья</t>
+  </si>
+  <si>
+    <t>роза</t>
+  </si>
+  <si>
+    <t>сосуд</t>
+  </si>
+  <si>
+    <t>хомут</t>
+  </si>
+  <si>
+    <t>скотский кожа</t>
+  </si>
+  <si>
+    <t>покроми</t>
+  </si>
+  <si>
     <t>нитка</t>
-  </si>
-  <si>
-    <t>скотский кожа</t>
-  </si>
-  <si>
-    <t>гумми</t>
-  </si>
-  <si>
-    <t>брусья</t>
-  </si>
-  <si>
-    <t>котел</t>
-  </si>
-  <si>
-    <t>покроми</t>
-  </si>
-  <si>
-    <t>сковорода</t>
-  </si>
-  <si>
-    <t>дуга</t>
-  </si>
-  <si>
-    <t>хомут</t>
-  </si>
-  <si>
-    <t>бечева</t>
-  </si>
-  <si>
-    <t>сосуд</t>
-  </si>
-  <si>
-    <t>роза</t>
   </si>
 </sst>
 </file>

--- a/nlp/sp_goods.xlsx
+++ b/nlp/sp_goods.xlsx
@@ -61,30 +61,30 @@
     <t>железо</t>
   </si>
   <si>
+    <t>полотно</t>
+  </si>
+  <si>
+    <t>колеса</t>
+  </si>
+  <si>
     <t>Крымскую соль</t>
   </si>
   <si>
-    <t>полотно</t>
-  </si>
-  <si>
-    <t>колеса</t>
+    <t>говядина</t>
+  </si>
+  <si>
+    <t>парча</t>
   </si>
   <si>
     <t>сено</t>
   </si>
   <si>
-    <t>говядина</t>
-  </si>
-  <si>
-    <t>парча</t>
+    <t>позумент</t>
   </si>
   <si>
     <t>табак</t>
   </si>
   <si>
-    <t>позумент</t>
-  </si>
-  <si>
     <t>шелк</t>
   </si>
   <si>
@@ -103,49 +103,52 @@
     <t>лес</t>
   </si>
   <si>
+    <t>ладан</t>
+  </si>
+  <si>
+    <t>сапог</t>
+  </si>
+  <si>
     <t>коса</t>
   </si>
   <si>
-    <t>ладан</t>
-  </si>
-  <si>
-    <t>сапог</t>
+    <t>сани</t>
   </si>
   <si>
     <t>китайка</t>
   </si>
   <si>
-    <t>сани</t>
+    <t>овца</t>
+  </si>
+  <si>
+    <t>обод</t>
+  </si>
+  <si>
+    <t>ром</t>
+  </si>
+  <si>
+    <t>конь</t>
+  </si>
+  <si>
+    <t>замок</t>
   </si>
   <si>
     <t>гвоздь</t>
   </si>
   <si>
-    <t>конь</t>
+    <t>веревка</t>
   </si>
   <si>
     <t>горшок</t>
   </si>
   <si>
-    <t>веревка</t>
+    <t>рогожа</t>
   </si>
   <si>
     <t>платок</t>
   </si>
   <si>
-    <t>рогожа</t>
-  </si>
-  <si>
-    <t>замок</t>
-  </si>
-  <si>
-    <t>овца</t>
-  </si>
-  <si>
-    <t>обод</t>
-  </si>
-  <si>
-    <t>ром</t>
+    <t>скотский кожа</t>
   </si>
   <si>
     <t>дуга</t>
@@ -154,34 +157,31 @@
     <t>бечева</t>
   </si>
   <si>
+    <t>нитка</t>
+  </si>
+  <si>
+    <t>хомут</t>
+  </si>
+  <si>
+    <t>сковорода</t>
+  </si>
+  <si>
+    <t>покроми</t>
+  </si>
+  <si>
+    <t>сосуд</t>
+  </si>
+  <si>
+    <t>роза</t>
+  </si>
+  <si>
     <t>котел</t>
   </si>
   <si>
     <t>гумми</t>
   </si>
   <si>
-    <t>сковорода</t>
-  </si>
-  <si>
     <t>брусья</t>
-  </si>
-  <si>
-    <t>роза</t>
-  </si>
-  <si>
-    <t>сосуд</t>
-  </si>
-  <si>
-    <t>хомут</t>
-  </si>
-  <si>
-    <t>скотский кожа</t>
-  </si>
-  <si>
-    <t>покроми</t>
-  </si>
-  <si>
-    <t>нитка</t>
   </si>
 </sst>
 </file>

--- a/nlp/sp_goods.xlsx
+++ b/nlp/sp_goods.xlsx
@@ -70,15 +70,15 @@
     <t>Крымскую соль</t>
   </si>
   <si>
+    <t>парча</t>
+  </si>
+  <si>
+    <t>сено</t>
+  </si>
+  <si>
     <t>говядина</t>
   </si>
   <si>
-    <t>парча</t>
-  </si>
-  <si>
-    <t>сено</t>
-  </si>
-  <si>
     <t>позумент</t>
   </si>
   <si>
@@ -88,34 +88,43 @@
     <t>шелк</t>
   </si>
   <si>
+    <t>выбойка</t>
+  </si>
+  <si>
+    <t>сахар</t>
+  </si>
+  <si>
     <t>чулок</t>
   </si>
   <si>
-    <t>выбойка</t>
-  </si>
-  <si>
-    <t>сахар</t>
+    <t>лес</t>
   </si>
   <si>
     <t>лыко</t>
   </si>
   <si>
-    <t>лес</t>
+    <t>сани</t>
+  </si>
+  <si>
+    <t>коса</t>
+  </si>
+  <si>
+    <t>сапог</t>
+  </si>
+  <si>
+    <t>китайка</t>
   </si>
   <si>
     <t>ладан</t>
   </si>
   <si>
-    <t>сапог</t>
-  </si>
-  <si>
-    <t>коса</t>
-  </si>
-  <si>
-    <t>сани</t>
-  </si>
-  <si>
-    <t>китайка</t>
+    <t>платок</t>
+  </si>
+  <si>
+    <t>гвоздь</t>
+  </si>
+  <si>
+    <t>ром</t>
   </si>
   <si>
     <t>овца</t>
@@ -124,64 +133,55 @@
     <t>обод</t>
   </si>
   <si>
-    <t>ром</t>
+    <t>рогожа</t>
+  </si>
+  <si>
+    <t>замок</t>
+  </si>
+  <si>
+    <t>веревка</t>
   </si>
   <si>
     <t>конь</t>
   </si>
   <si>
-    <t>замок</t>
-  </si>
-  <si>
-    <t>гвоздь</t>
-  </si>
-  <si>
-    <t>веревка</t>
-  </si>
-  <si>
     <t>горшок</t>
   </si>
   <si>
-    <t>рогожа</t>
-  </si>
-  <si>
-    <t>платок</t>
+    <t>покроми</t>
+  </si>
+  <si>
+    <t>котел</t>
+  </si>
+  <si>
+    <t>роза</t>
+  </si>
+  <si>
+    <t>дуга</t>
+  </si>
+  <si>
+    <t>брусья</t>
   </si>
   <si>
     <t>скотский кожа</t>
   </si>
   <si>
-    <t>дуга</t>
-  </si>
-  <si>
     <t>бечева</t>
   </si>
   <si>
+    <t>гумми</t>
+  </si>
+  <si>
+    <t>сковорода</t>
+  </si>
+  <si>
+    <t>сосуд</t>
+  </si>
+  <si>
+    <t>хомут</t>
+  </si>
+  <si>
     <t>нитка</t>
-  </si>
-  <si>
-    <t>хомут</t>
-  </si>
-  <si>
-    <t>сковорода</t>
-  </si>
-  <si>
-    <t>покроми</t>
-  </si>
-  <si>
-    <t>сосуд</t>
-  </si>
-  <si>
-    <t>роза</t>
-  </si>
-  <si>
-    <t>котел</t>
-  </si>
-  <si>
-    <t>гумми</t>
-  </si>
-  <si>
-    <t>брусья</t>
   </si>
 </sst>
 </file>

--- a/nlp/sp_goods.xlsx
+++ b/nlp/sp_goods.xlsx
@@ -73,115 +73,115 @@
     <t>парча</t>
   </si>
   <si>
+    <t>говядина</t>
+  </si>
+  <si>
     <t>сено</t>
   </si>
   <si>
-    <t>говядина</t>
-  </si>
-  <si>
     <t>позумент</t>
   </si>
   <si>
     <t>табак</t>
   </si>
   <si>
+    <t>выбойка</t>
+  </si>
+  <si>
+    <t>чулок</t>
+  </si>
+  <si>
     <t>шелк</t>
   </si>
   <si>
-    <t>выбойка</t>
-  </si>
-  <si>
     <t>сахар</t>
   </si>
   <si>
-    <t>чулок</t>
-  </si>
-  <si>
     <t>лес</t>
   </si>
   <si>
     <t>лыко</t>
   </si>
   <si>
+    <t>китайка</t>
+  </si>
+  <si>
+    <t>сапог</t>
+  </si>
+  <si>
     <t>сани</t>
   </si>
   <si>
     <t>коса</t>
   </si>
   <si>
-    <t>сапог</t>
-  </si>
-  <si>
-    <t>китайка</t>
-  </si>
-  <si>
     <t>ладан</t>
   </si>
   <si>
+    <t>конь</t>
+  </si>
+  <si>
+    <t>рогожа</t>
+  </si>
+  <si>
+    <t>ром</t>
+  </si>
+  <si>
+    <t>веревка</t>
+  </si>
+  <si>
     <t>платок</t>
   </si>
   <si>
+    <t>замок</t>
+  </si>
+  <si>
+    <t>овца</t>
+  </si>
+  <si>
+    <t>горшок</t>
+  </si>
+  <si>
     <t>гвоздь</t>
   </si>
   <si>
-    <t>ром</t>
-  </si>
-  <si>
-    <t>овца</t>
-  </si>
-  <si>
     <t>обод</t>
   </si>
   <si>
-    <t>рогожа</t>
-  </si>
-  <si>
-    <t>замок</t>
-  </si>
-  <si>
-    <t>веревка</t>
-  </si>
-  <si>
-    <t>конь</t>
-  </si>
-  <si>
-    <t>горшок</t>
+    <t>котел</t>
+  </si>
+  <si>
+    <t>нитка</t>
+  </si>
+  <si>
+    <t>скотский кожа</t>
+  </si>
+  <si>
+    <t>сосуд</t>
+  </si>
+  <si>
+    <t>гумми</t>
+  </si>
+  <si>
+    <t>роза</t>
+  </si>
+  <si>
+    <t>брусья</t>
   </si>
   <si>
     <t>покроми</t>
   </si>
   <si>
-    <t>котел</t>
-  </si>
-  <si>
-    <t>роза</t>
+    <t>хомут</t>
+  </si>
+  <si>
+    <t>сковорода</t>
+  </si>
+  <si>
+    <t>бечева</t>
   </si>
   <si>
     <t>дуга</t>
-  </si>
-  <si>
-    <t>брусья</t>
-  </si>
-  <si>
-    <t>скотский кожа</t>
-  </si>
-  <si>
-    <t>бечева</t>
-  </si>
-  <si>
-    <t>гумми</t>
-  </si>
-  <si>
-    <t>сковорода</t>
-  </si>
-  <si>
-    <t>сосуд</t>
-  </si>
-  <si>
-    <t>хомут</t>
-  </si>
-  <si>
-    <t>нитка</t>
   </si>
 </sst>
 </file>

--- a/nlp/sp_goods.xlsx
+++ b/nlp/sp_goods.xlsx
@@ -61,13 +61,16 @@
     <t>железо</t>
   </si>
   <si>
+    <t>Крымскую соль</t>
+  </si>
+  <si>
     <t>полотно</t>
   </si>
   <si>
     <t>колеса</t>
   </si>
   <si>
-    <t>Крымскую соль</t>
+    <t>сено</t>
   </si>
   <si>
     <t>парча</t>
@@ -76,24 +79,21 @@
     <t>говядина</t>
   </si>
   <si>
-    <t>сено</t>
+    <t>табак</t>
   </si>
   <si>
     <t>позумент</t>
   </si>
   <si>
-    <t>табак</t>
-  </si>
-  <si>
     <t>выбойка</t>
   </si>
   <si>
+    <t>шелк</t>
+  </si>
+  <si>
     <t>чулок</t>
   </si>
   <si>
-    <t>шелк</t>
-  </si>
-  <si>
     <t>сахар</t>
   </si>
   <si>
@@ -109,79 +109,79 @@
     <t>сапог</t>
   </si>
   <si>
+    <t>коса</t>
+  </si>
+  <si>
     <t>сани</t>
   </si>
   <si>
-    <t>коса</t>
-  </si>
-  <si>
     <t>ладан</t>
   </si>
   <si>
+    <t>гвоздь</t>
+  </si>
+  <si>
+    <t>горшок</t>
+  </si>
+  <si>
+    <t>ром</t>
+  </si>
+  <si>
     <t>конь</t>
   </si>
   <si>
+    <t>обод</t>
+  </si>
+  <si>
     <t>рогожа</t>
   </si>
   <si>
-    <t>ром</t>
+    <t>платок</t>
+  </si>
+  <si>
+    <t>овца</t>
+  </si>
+  <si>
+    <t>замок</t>
   </si>
   <si>
     <t>веревка</t>
   </si>
   <si>
-    <t>платок</t>
-  </si>
-  <si>
-    <t>замок</t>
-  </si>
-  <si>
-    <t>овца</t>
-  </si>
-  <si>
-    <t>горшок</t>
-  </si>
-  <si>
-    <t>гвоздь</t>
-  </si>
-  <si>
-    <t>обод</t>
+    <t>сосуд</t>
+  </si>
+  <si>
+    <t>нитка</t>
+  </si>
+  <si>
+    <t>гумми</t>
   </si>
   <si>
     <t>котел</t>
   </si>
   <si>
-    <t>нитка</t>
+    <t>роза</t>
+  </si>
+  <si>
+    <t>покроми</t>
+  </si>
+  <si>
+    <t>брусья</t>
+  </si>
+  <si>
+    <t>дуга</t>
+  </si>
+  <si>
+    <t>бечева</t>
+  </si>
+  <si>
+    <t>сковорода</t>
+  </si>
+  <si>
+    <t>хомут</t>
   </si>
   <si>
     <t>скотский кожа</t>
-  </si>
-  <si>
-    <t>сосуд</t>
-  </si>
-  <si>
-    <t>гумми</t>
-  </si>
-  <si>
-    <t>роза</t>
-  </si>
-  <si>
-    <t>брусья</t>
-  </si>
-  <si>
-    <t>покроми</t>
-  </si>
-  <si>
-    <t>хомут</t>
-  </si>
-  <si>
-    <t>сковорода</t>
-  </si>
-  <si>
-    <t>бечева</t>
-  </si>
-  <si>
-    <t>дуга</t>
   </si>
 </sst>
 </file>

--- a/nlp/sp_goods.xlsx
+++ b/nlp/sp_goods.xlsx
@@ -61,21 +61,21 @@
     <t>железо</t>
   </si>
   <si>
+    <t>полотно</t>
+  </si>
+  <si>
     <t>Крымскую соль</t>
   </si>
   <si>
-    <t>полотно</t>
-  </si>
-  <si>
     <t>колеса</t>
   </si>
   <si>
+    <t>парча</t>
+  </si>
+  <si>
     <t>сено</t>
   </si>
   <si>
-    <t>парча</t>
-  </si>
-  <si>
     <t>говядина</t>
   </si>
   <si>
@@ -85,15 +85,15 @@
     <t>позумент</t>
   </si>
   <si>
+    <t>чулок</t>
+  </si>
+  <si>
+    <t>шелк</t>
+  </si>
+  <si>
     <t>выбойка</t>
   </si>
   <si>
-    <t>шелк</t>
-  </si>
-  <si>
-    <t>чулок</t>
-  </si>
-  <si>
     <t>сахар</t>
   </si>
   <si>
@@ -106,16 +106,37 @@
     <t>китайка</t>
   </si>
   <si>
+    <t>сани</t>
+  </si>
+  <si>
     <t>сапог</t>
   </si>
   <si>
+    <t>ладан</t>
+  </si>
+  <si>
     <t>коса</t>
   </si>
   <si>
-    <t>сани</t>
-  </si>
-  <si>
-    <t>ладан</t>
+    <t>веревка</t>
+  </si>
+  <si>
+    <t>конь</t>
+  </si>
+  <si>
+    <t>замок</t>
+  </si>
+  <si>
+    <t>овца</t>
+  </si>
+  <si>
+    <t>платок</t>
+  </si>
+  <si>
+    <t>обод</t>
+  </si>
+  <si>
+    <t>ром</t>
   </si>
   <si>
     <t>гвоздь</t>
@@ -124,64 +145,43 @@
     <t>горшок</t>
   </si>
   <si>
-    <t>ром</t>
-  </si>
-  <si>
-    <t>конь</t>
-  </si>
-  <si>
-    <t>обод</t>
-  </si>
-  <si>
     <t>рогожа</t>
   </si>
   <si>
-    <t>платок</t>
-  </si>
-  <si>
-    <t>овца</t>
-  </si>
-  <si>
-    <t>замок</t>
-  </si>
-  <si>
-    <t>веревка</t>
-  </si>
-  <si>
     <t>сосуд</t>
   </si>
   <si>
+    <t>роза</t>
+  </si>
+  <si>
+    <t>дуга</t>
+  </si>
+  <si>
+    <t>бечева</t>
+  </si>
+  <si>
+    <t>сковорода</t>
+  </si>
+  <si>
+    <t>скотский кожа</t>
+  </si>
+  <si>
     <t>нитка</t>
   </si>
   <si>
+    <t>брусья</t>
+  </si>
+  <si>
+    <t>хомут</t>
+  </si>
+  <si>
+    <t>котел</t>
+  </si>
+  <si>
     <t>гумми</t>
   </si>
   <si>
-    <t>котел</t>
-  </si>
-  <si>
-    <t>роза</t>
-  </si>
-  <si>
     <t>покроми</t>
-  </si>
-  <si>
-    <t>брусья</t>
-  </si>
-  <si>
-    <t>дуга</t>
-  </si>
-  <si>
-    <t>бечева</t>
-  </si>
-  <si>
-    <t>сковорода</t>
-  </si>
-  <si>
-    <t>хомут</t>
-  </si>
-  <si>
-    <t>скотский кожа</t>
   </si>
 </sst>
 </file>
